--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H2">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N2">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P2">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q2">
-        <v>8.37752745516489</v>
+        <v>1.739068629666666</v>
       </c>
       <c r="R2">
-        <v>75.397747096484</v>
+        <v>15.651617667</v>
       </c>
       <c r="S2">
-        <v>0.02173089804120491</v>
+        <v>0.004064866112855373</v>
       </c>
       <c r="T2">
-        <v>0.02173089804120491</v>
+        <v>0.004064866112855373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H3">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
         <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P3">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q3">
-        <v>1.224521138628667</v>
+        <v>0.2682525755</v>
       </c>
       <c r="R3">
-        <v>11.020690247658</v>
+        <v>2.4142731795</v>
       </c>
       <c r="S3">
-        <v>0.003176348171372953</v>
+        <v>0.000627008494797086</v>
       </c>
       <c r="T3">
-        <v>0.003176348171372953</v>
+        <v>0.000627008494797086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H4">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N4">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P4">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q4">
-        <v>1.970942340635667</v>
+        <v>0.2330476309999999</v>
       </c>
       <c r="R4">
-        <v>17.738481065721</v>
+        <v>2.097428679</v>
       </c>
       <c r="S4">
-        <v>0.005112528401568149</v>
+        <v>0.0005447211235790603</v>
       </c>
       <c r="T4">
-        <v>0.005112528401568149</v>
+        <v>0.0005447211235790603</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.256823</v>
       </c>
       <c r="I5">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J5">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N5">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P5">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q5">
-        <v>150.2749993726004</v>
+        <v>142.3999977556831</v>
       </c>
       <c r="R5">
-        <v>1352.474994353404</v>
+        <v>1281.599979801148</v>
       </c>
       <c r="S5">
-        <v>0.3898060265376758</v>
+        <v>0.3328430606322335</v>
       </c>
       <c r="T5">
-        <v>0.3898060265376758</v>
+        <v>0.3328430606322335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.256823</v>
       </c>
       <c r="I6">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J6">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
         <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P6">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q6">
         <v>21.96530113735534</v>
       </c>
       <c r="R6">
-        <v>197.6877102361981</v>
+        <v>197.687710236198</v>
       </c>
       <c r="S6">
-        <v>0.05697692093697068</v>
+        <v>0.05134127930823124</v>
       </c>
       <c r="T6">
-        <v>0.0569769209369707</v>
+        <v>0.05134127930823124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.256823</v>
       </c>
       <c r="I7">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J7">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N7">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P7">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q7">
-        <v>35.35450770977234</v>
+        <v>19.08261788249733</v>
       </c>
       <c r="R7">
-        <v>318.190569387951</v>
+        <v>171.743560942476</v>
       </c>
       <c r="S7">
-        <v>0.09170787042475098</v>
+        <v>0.04460335000695122</v>
       </c>
       <c r="T7">
-        <v>0.091707870424751</v>
+        <v>0.04460335000695122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H8">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.12444933333333</v>
+        <v>24.75542533333333</v>
       </c>
       <c r="N8">
-        <v>78.37334799999999</v>
+        <v>74.26627599999999</v>
       </c>
       <c r="O8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="P8">
-        <v>0.7238861157526749</v>
+        <v>0.7762421087066456</v>
       </c>
       <c r="Q8">
-        <v>120.4144402912084</v>
+        <v>187.9600145680849</v>
       </c>
       <c r="R8">
-        <v>1083.729962620876</v>
+        <v>1691.640131112764</v>
       </c>
       <c r="S8">
-        <v>0.3123491911737942</v>
+        <v>0.4393341819615568</v>
       </c>
       <c r="T8">
-        <v>0.3123491911737942</v>
+        <v>0.4393341819615567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H9">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.818542000000001</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
         <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="P9">
-        <v>0.1058085282850919</v>
+        <v>0.1197358984688377</v>
       </c>
       <c r="Q9">
-        <v>17.60066180885134</v>
+        <v>28.99296619971267</v>
       </c>
       <c r="R9">
-        <v>158.405956279662</v>
+        <v>260.936695797414</v>
       </c>
       <c r="S9">
-        <v>0.0456552591767483</v>
+        <v>0.06776761066580936</v>
       </c>
       <c r="T9">
-        <v>0.0456552591767483</v>
+        <v>0.06776761066580934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H10">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.146179</v>
+        <v>3.317404</v>
       </c>
       <c r="N10">
-        <v>18.438537</v>
+        <v>9.952211999999999</v>
       </c>
       <c r="O10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="P10">
-        <v>0.1703053559622332</v>
+        <v>0.1040219928245168</v>
       </c>
       <c r="Q10">
-        <v>28.32935135862434</v>
+        <v>25.18798589691866</v>
       </c>
       <c r="R10">
-        <v>254.964162227619</v>
+        <v>226.691873072268</v>
       </c>
       <c r="S10">
-        <v>0.07348495713591409</v>
+        <v>0.0588739216939865</v>
       </c>
       <c r="T10">
-        <v>0.07348495713591409</v>
+        <v>0.05887392169398649</v>
       </c>
     </row>
   </sheetData>
